--- a/test_input.xlsx
+++ b/test_input.xlsx
@@ -1,37 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Maps link</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>LATTs</t>
+  </si>
+  <si>
+    <t>Sandton City</t>
+  </si>
+  <si>
+    <t>Johannesburg</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Sandton+City/@-26.108204,28.0527061,17z</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +85,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,66 +407,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Map link</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Long</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Latts</t>
-        </is>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Sandton City</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Johannesburg</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sandton+City/@-26.108204,28.0527061,17z</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test_input.xlsx
+++ b/test_input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -31,13 +31,196 @@
     <t>LATTs</t>
   </si>
   <si>
-    <t>Sandton City</t>
-  </si>
-  <si>
-    <t>Johannesburg</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Sandton+City/@-26.108204,28.0527061,17z</t>
+    <t>Sandton City Mall</t>
+  </si>
+  <si>
+    <t>CAPE TOWN CBD</t>
+  </si>
+  <si>
+    <t>durban beachfront</t>
+  </si>
+  <si>
+    <t>Pretoria-East 123</t>
+  </si>
+  <si>
+    <t>Bloemfontein (Central)</t>
+  </si>
+  <si>
+    <t>Port Elizabeth / PE</t>
+  </si>
+  <si>
+    <t>N1 City Mall</t>
+  </si>
+  <si>
+    <t>East London - 5th Avenue</t>
+  </si>
+  <si>
+    <t>Polokwane R37 &amp; R71</t>
+  </si>
+  <si>
+    <t>Kimberley: Big Hole</t>
+  </si>
+  <si>
+    <t>Johannesburg CBD - 2nd Floor</t>
+  </si>
+  <si>
+    <t>Cape Town V&amp;A Waterfront</t>
+  </si>
+  <si>
+    <t>DURBAN uMhlanga Ridge</t>
+  </si>
+  <si>
+    <t>Pretoria Menlyn Park</t>
+  </si>
+  <si>
+    <t>Orange Farm Ext. 7</t>
+  </si>
+  <si>
+    <t>Soweto - Orlando West</t>
+  </si>
+  <si>
+    <t>Midrand @ Waterfall</t>
+  </si>
+  <si>
+    <t>Centurion Mall #205</t>
+  </si>
+  <si>
+    <t>Sandton, Gauteng</t>
+  </si>
+  <si>
+    <t>PE Central</t>
+  </si>
+  <si>
+    <t>Frame_SHDd_MSC_sdsd_7341</t>
+  </si>
+  <si>
+    <t>Site_123_Building_A</t>
+  </si>
+  <si>
+    <t>_789_Location</t>
+  </si>
+  <si>
+    <t>ALLCAPS_123_TEST</t>
+  </si>
+  <si>
+    <t>lower_case_test_456</t>
+  </si>
+  <si>
+    <t>Name.With.Dots.2024</t>
+  </si>
+  <si>
+    <t>Location|Zone|A12</t>
+  </si>
+  <si>
+    <t>Building[Section-B]</t>
+  </si>
+  <si>
+    <t>Area\!\!\!Main\!\!\!Entrance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Spaces_Around_Name  </t>
+  </si>
+  <si>
+    <t>Gauteng</t>
+  </si>
+  <si>
+    <t>Western Cape</t>
+  </si>
+  <si>
+    <t>KwaZulu-Natal</t>
+  </si>
+  <si>
+    <t>Free State</t>
+  </si>
+  <si>
+    <t>Eastern Cape</t>
+  </si>
+  <si>
+    <t>Limpopo</t>
+  </si>
+  <si>
+    <t>Northern Cape</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=-26.1076,28.0567</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/@-33.9249,18.4241,15z</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=-25.7479,28.2293</t>
+  </si>
+  <si>
+    <t>not a valid url</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=-33.9608,25.6022</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=-33.8918,18.5810</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://maps.google.com/?q=-32.9783,27.8708 </t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Polokwane/@-23.9045,29.4689,13z</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=-26.2041,28.0473</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=-33.9022,18.4178</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=-29.8587,31.0218</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=-25.7863,28.2775</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=-26.5225,27.8546</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=-26.2309,27.8546</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=-25.9092,28.1122</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=-25.8601,28.1880</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/abc123</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=-26.1500,28.0600</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=-33.9300,18.4300</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=-23.8950,29.4700</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=-25.7900,28.2800</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=-29.1200,26.2200</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=-28.7500,24.7500</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=-25.9100,28.1100</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=-33.9100,18.4200</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=-32.9800,27.8700</t>
+  </si>
+  <si>
+    <t>https://maps.google.com/?q=-29.8600,31.0200</t>
   </si>
 </sst>
 </file>
@@ -408,7 +591,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -436,15 +619,353 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C12" r:id="rId7"/>
+    <hyperlink ref="C13" r:id="rId8"/>
+    <hyperlink ref="C14" r:id="rId9"/>
+    <hyperlink ref="C15" r:id="rId10"/>
+    <hyperlink ref="C16" r:id="rId11"/>
+    <hyperlink ref="C17" r:id="rId12"/>
+    <hyperlink ref="C18" r:id="rId13"/>
+    <hyperlink ref="C19" r:id="rId14"/>
+    <hyperlink ref="C20" r:id="rId15"/>
+    <hyperlink ref="C21" r:id="rId16"/>
+    <hyperlink ref="C22" r:id="rId17"/>
+    <hyperlink ref="C23" r:id="rId18"/>
+    <hyperlink ref="C24" r:id="rId19"/>
+    <hyperlink ref="C25" r:id="rId20"/>
+    <hyperlink ref="C26" r:id="rId21"/>
+    <hyperlink ref="C27" r:id="rId22"/>
+    <hyperlink ref="C28" r:id="rId23"/>
+    <hyperlink ref="C29" r:id="rId24"/>
+    <hyperlink ref="C30" r:id="rId25"/>
+    <hyperlink ref="C31" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
